--- a/predict/pred_result_with_ad/test/tg412_vapour_maccs_mdFalse_mlp.xlsx
+++ b/predict/pred_result_with_ad/test/tg412_vapour_maccs_mdFalse_mlp.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -480,7 +480,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5905604235368107</v>
+        <v>0.5861151328385109</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.304073861700242</v>
+        <v>3.305742705987756</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>23.56732892464162</v>
+        <v>23.59635817335491</v>
       </c>
     </row>
     <row r="3">
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06517909093140592</v>
+        <v>0.06738082302582739</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4.133744580221537</v>
+        <v>4.130942625472228</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>50171.83339081053</v>
+        <v>50171.8329137979</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1929299160125463</v>
+        <v>0.1916201187506779</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3.232153865997917</v>
+        <v>3.233859825055158</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>13.16305921908389</v>
+        <v>13.14852606915397</v>
       </c>
     </row>
     <row r="5">
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07817016148821669</v>
+        <v>0.07853546412136199</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.468142902863414</v>
+        <v>3.469732835435944</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>21.96560582110765</v>
+        <v>22.0022133139772</v>
       </c>
     </row>
     <row r="6">
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.493286920163362</v>
+        <v>0.4877482763658235</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2.932688999422106</v>
+        <v>2.934569052169659</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>9.171864350567926</v>
+        <v>9.172635853610865</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6403351689898727</v>
+        <v>0.6348968409953164</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3.515870948714585</v>
+        <v>3.517439307598028</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>28.40665310036168</v>
+        <v>28.16631028984485</v>
       </c>
     </row>
     <row r="8">
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.198921912130817</v>
+        <v>0.1965671430812787</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3.417248578060208</v>
+        <v>3.418862178982213</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>19.19397451991385</v>
+        <v>19.55336713067941</v>
       </c>
     </row>
     <row r="9">
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8330473698600903</v>
+        <v>0.8297686016294062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4.04702885400008</v>
+        <v>4.04839144596094</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>15.23168637227154</v>
+        <v>15.2316866321447</v>
       </c>
     </row>
     <row r="10">
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1425614487309467</v>
+        <v>0.141723053797871</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2.598944193548139</v>
+        <v>2.601065488563886</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.571029771859584</v>
+        <v>5.570770648026607</v>
       </c>
     </row>
     <row r="11">
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08949868371339381</v>
+        <v>0.08888609346461386</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3.900775484787103</v>
+        <v>3.902189146791394</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>14.59302559621642</v>
+        <v>14.60568327462735</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09110798785732205</v>
+        <v>0.09146212567516757</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.812123909181779</v>
+        <v>3.813570433802929</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>21.61833633717723</v>
+        <v>21.62482687762518</v>
       </c>
     </row>
     <row r="13">
@@ -799,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7117488904376786</v>
+        <v>0.7015614628177338</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2.976083840173474</v>
+        <v>2.977936496697367</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>15.57501612995574</v>
+        <v>15.62523091997716</v>
       </c>
     </row>
     <row r="14">
@@ -828,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8849718822990127</v>
+        <v>0.8886258607703036</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3.142319054589414</v>
+        <v>3.13863214812889</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>30.57279438799518</v>
+        <v>30.75208668558781</v>
       </c>
     </row>
     <row r="15">
@@ -854,10 +854,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5002977712270954</v>
+        <v>0.4924679847927328</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3.394663707999417</v>
+        <v>3.396288039172893</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>122474.4928783368</v>
+        <v>122474.4928775874</v>
       </c>
     </row>
     <row r="16">
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1235962844964665</v>
+        <v>0.1235767905693839</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2.821283241063504</v>
+        <v>2.823237482204834</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>13.01418351311648</v>
+        <v>13.00344900291809</v>
       </c>
     </row>
     <row r="17">
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08211367666324303</v>
+        <v>0.08194859436032131</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2.728885965643358</v>
+        <v>2.730906327230171</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>8.127435159401619</v>
+        <v>8.126566828198014</v>
       </c>
     </row>
     <row r="18">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5982450767990608</v>
+        <v>0.5936253079045443</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2.116838833655815</v>
+        <v>2.119442710311796</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>8.208870408193006</v>
+        <v>8.21818574117898</v>
       </c>
     </row>
     <row r="19">
@@ -973,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8234205352699918</v>
+        <v>0.8216369263036442</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3.041420295997264</v>
+        <v>3.043233177317272</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>18.0117752543082</v>
+        <v>18.01206977581354</v>
       </c>
     </row>
     <row r="20">
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1312437188018147</v>
+        <v>0.131874426125712</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3.571345813720312</v>
+        <v>3.572889821390814</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>19.21650709017284</v>
+        <v>19.23084464027477</v>
       </c>
     </row>
     <row r="21">
@@ -1031,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0.860516126959009</v>
+        <v>0.8590116783601738</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2.280121787453914</v>
+        <v>2.282539401684565</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7.956356495088742</v>
+        <v>7.951211040269937</v>
       </c>
     </row>
     <row r="22">
@@ -1060,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7588771382620351</v>
+        <v>0.7747326442134768</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3.866664210628948</v>
+        <v>3.859241739513504</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>37.1666981652731</v>
+        <v>39.66927293842755</v>
       </c>
     </row>
     <row r="23">
@@ -1089,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9003602235114168</v>
+        <v>0.899498003735881</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.120872618703757</v>
+        <v>2.123471548994201</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>12.83808290265064</v>
+        <v>12.85967462616265</v>
       </c>
     </row>
     <row r="24">
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3132663196700438</v>
+        <v>0.3142368248278699</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2.605513184646285</v>
+        <v>2.60762913582168</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>19.42760568350146</v>
+        <v>19.43288793319424</v>
       </c>
     </row>
     <row r="25">
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6163455507359775</v>
+        <v>0.6067442517259274</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3.116372230405499</v>
+        <v>3.118141535123613</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>16.07237711134962</v>
+        <v>16.0962853890208</v>
       </c>
     </row>
     <row r="26">
@@ -1176,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9375650998587607</v>
+        <v>0.9410630678916757</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5.015597703453397</v>
+        <v>5.009877743930626</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>100000.0064187917</v>
+        <v>100000.0064803569</v>
       </c>
     </row>
     <row r="27">
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6202371453557185</v>
+        <v>0.6168657615564673</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2.486334922838839</v>
+        <v>2.488552210251678</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>50171.83704552336</v>
+        <v>50171.83651514939</v>
       </c>
     </row>
     <row r="28">
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3046117377319777</v>
+        <v>0.3013750189993948</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.587408329071492</v>
+        <v>2.589539074037893</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>83518.32253200663</v>
+        <v>83518.32577081314</v>
       </c>
     </row>
     <row r="29">
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4669703967394672</v>
+        <v>0.4589586052978961</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3.439685159734923</v>
+        <v>3.441288240284612</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>16.70229332417881</v>
+        <v>16.80539003364173</v>
       </c>
     </row>
     <row r="30">
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.05950511727223474</v>
+        <v>0.05781599520153294</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3.8188441641729</v>
+        <v>3.820288144218694</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>15.83059481446026</v>
+        <v>16.01317626172964</v>
       </c>
     </row>
     <row r="31">
@@ -1321,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0.53260824456089</v>
+        <v>0.5248733457557652</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2.827335699999883</v>
+        <v>2.829285760596537</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>10.74729139164487</v>
+        <v>10.74729139015543</v>
       </c>
     </row>
     <row r="32">
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1357296652825706</v>
+        <v>0.1346056363751638</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2.809139202305525</v>
+        <v>2.811101885835912</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.16228622743592</v>
+        <v>4.162433391816847</v>
       </c>
     </row>
     <row r="33">
@@ -1379,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5669252731667161</v>
+        <v>0.5670247625999532</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3.1163722304055</v>
+        <v>3.118141535123613</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>46.31080162447726</v>
+        <v>47.03340674733406</v>
       </c>
     </row>
     <row r="34">
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1425614487309467</v>
+        <v>0.141723053797871</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2.598944193548139</v>
+        <v>2.601065488563886</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>5.571029771859584</v>
+        <v>5.570770648026607</v>
       </c>
     </row>
     <row r="35">
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1425614487309467</v>
+        <v>0.141723053797871</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2.598944193548139</v>
+        <v>2.601065488563886</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5.571029771859584</v>
+        <v>5.570770648026607</v>
       </c>
     </row>
     <row r="36">
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8154915909422391</v>
+        <v>0.8093137008046218</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3.803145097229305</v>
+        <v>3.8045950356378</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>80581.53953495716</v>
+        <v>80581.54286188268</v>
       </c>
     </row>
     <row r="37">
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2411409456327948</v>
+        <v>0.2449567022319238</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3.78173498122041</v>
+        <v>3.778672013898348</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>37.94738868491314</v>
+        <v>37.95748409184606</v>
       </c>
     </row>
     <row r="38">
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2594444214609219</v>
+        <v>0.2577290131907564</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3.524369104938394</v>
+        <v>3.523508808754526</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>30.49609125986455</v>
+        <v>30.57652401424588</v>
       </c>
     </row>
     <row r="39">
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1300931789524662</v>
+        <v>0.1458969638804628</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4.41276099954737</v>
+        <v>4.404318370449248</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>12.86544491282274</v>
+        <v>12.90708709920714</v>
       </c>
     </row>
     <row r="40">
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.338242443774109</v>
+        <v>0.3375584056266357</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2.649427897893214</v>
+        <v>2.651508804578131</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>13.66346338353693</v>
+        <v>13.66550773190044</v>
       </c>
     </row>
     <row r="41">
@@ -1611,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5729508482210545</v>
+        <v>0.5650392235199149</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2.960246261668883</v>
+        <v>2.962108823852543</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>19.98485644919773</v>
+        <v>19.9533090189197</v>
       </c>
     </row>
     <row r="42">
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.06798200254928369</v>
+        <v>0.0685016870664274</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4.159509522550241</v>
+        <v>4.158780615241999</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>15.2316863309219</v>
+        <v>15.23168620039885</v>
       </c>
     </row>
     <row r="43">
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1877387807776596</v>
+        <v>0.1878411779413365</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3.827786151107908</v>
+        <v>3.829226759181804</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>12.35487005966662</v>
+        <v>12.35588647480401</v>
       </c>
     </row>
   </sheetData>
